--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4414519377486</v>
+        <v>40.92730033333333</v>
       </c>
       <c r="N2">
-        <v>14.4414519377486</v>
+        <v>122.781901</v>
       </c>
       <c r="O2">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="P2">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="Q2">
-        <v>367.8202012747673</v>
+        <v>1667.926286701197</v>
       </c>
       <c r="R2">
-        <v>367.8202012747673</v>
+        <v>15011.33658031077</v>
       </c>
       <c r="S2">
-        <v>0.002788563811810724</v>
+        <v>0.008339471808535916</v>
       </c>
       <c r="T2">
-        <v>0.002788563811810724</v>
+        <v>0.008339471808535915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.54368712743715</v>
+        <v>7.598228333333334</v>
       </c>
       <c r="N3">
-        <v>7.54368712743715</v>
+        <v>22.794685</v>
       </c>
       <c r="O3">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174674</v>
       </c>
       <c r="P3">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174673</v>
       </c>
       <c r="Q3">
-        <v>192.1358412941115</v>
+        <v>309.6535727083545</v>
       </c>
       <c r="R3">
-        <v>192.1358412941115</v>
+        <v>2786.88215437519</v>
       </c>
       <c r="S3">
-        <v>0.001456643904080542</v>
+        <v>0.00154823822887346</v>
       </c>
       <c r="T3">
-        <v>0.001456643904080542</v>
+        <v>0.00154823822887346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.6859631917161</v>
+        <v>49.40125466666666</v>
       </c>
       <c r="N4">
-        <v>43.6859631917161</v>
+        <v>148.203764</v>
       </c>
       <c r="O4">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063359</v>
       </c>
       <c r="P4">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063358</v>
       </c>
       <c r="Q4">
-        <v>1112.670654122896</v>
+        <v>2013.268663788326</v>
       </c>
       <c r="R4">
-        <v>1112.670654122896</v>
+        <v>18119.41797409493</v>
       </c>
       <c r="S4">
-        <v>0.008435515803094974</v>
+        <v>0.01006615064379</v>
       </c>
       <c r="T4">
-        <v>0.008435515803094974</v>
+        <v>0.01006615064379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.26448193664837</v>
+        <v>6.436425</v>
       </c>
       <c r="N5">
-        <v>6.26448193664837</v>
+        <v>19.309275</v>
       </c>
       <c r="O5">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="P5">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="Q5">
-        <v>159.5548021592744</v>
+        <v>262.30614681265</v>
       </c>
       <c r="R5">
-        <v>159.5548021592744</v>
+        <v>2360.75532131385</v>
       </c>
       <c r="S5">
-        <v>0.001209636517407057</v>
+        <v>0.001311505630669192</v>
       </c>
       <c r="T5">
-        <v>0.001209636517407057</v>
+        <v>0.001311505630669192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4414519377486</v>
+        <v>40.92730033333333</v>
       </c>
       <c r="N6">
-        <v>14.4414519377486</v>
+        <v>122.781901</v>
       </c>
       <c r="O6">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="P6">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="Q6">
-        <v>24367.31631776518</v>
+        <v>69138.05080383508</v>
       </c>
       <c r="R6">
-        <v>24367.31631776518</v>
+        <v>622242.4572345158</v>
       </c>
       <c r="S6">
-        <v>0.1847364996244602</v>
+        <v>0.3456836373243142</v>
       </c>
       <c r="T6">
-        <v>0.1847364996244602</v>
+        <v>0.3456836373243141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.54368712743715</v>
+        <v>7.598228333333334</v>
       </c>
       <c r="N7">
-        <v>7.54368712743715</v>
+        <v>22.794685</v>
       </c>
       <c r="O7">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174674</v>
       </c>
       <c r="P7">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174673</v>
       </c>
       <c r="Q7">
-        <v>12728.59621240907</v>
+        <v>12835.60587311169</v>
       </c>
       <c r="R7">
-        <v>12728.59621240907</v>
+        <v>115520.4528580052</v>
       </c>
       <c r="S7">
-        <v>0.09649960129992979</v>
+        <v>0.06417680096402796</v>
       </c>
       <c r="T7">
-        <v>0.09649960129992979</v>
+        <v>0.06417680096402795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.6859631917161</v>
+        <v>49.40125466666666</v>
       </c>
       <c r="N8">
-        <v>43.6859631917161</v>
+        <v>148.203764</v>
       </c>
       <c r="O8">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063359</v>
       </c>
       <c r="P8">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063358</v>
       </c>
       <c r="Q8">
-        <v>73712.09545463114</v>
+        <v>83453.01124431675</v>
       </c>
       <c r="R8">
-        <v>73712.09545463114</v>
+        <v>751077.1011988507</v>
       </c>
       <c r="S8">
-        <v>0.5588352166768908</v>
+        <v>0.4172570695470356</v>
       </c>
       <c r="T8">
-        <v>0.5588352166768908</v>
+        <v>0.4172570695470356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.26448193664837</v>
+        <v>6.436425</v>
       </c>
       <c r="N9">
-        <v>6.26448193664837</v>
+        <v>19.309275</v>
       </c>
       <c r="O9">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="P9">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="Q9">
-        <v>10570.17075396885</v>
+        <v>10872.983925662</v>
       </c>
       <c r="R9">
-        <v>10570.17075396885</v>
+        <v>97856.85533095799</v>
       </c>
       <c r="S9">
-        <v>0.08013588037585487</v>
+        <v>0.05436387905490603</v>
       </c>
       <c r="T9">
-        <v>0.08013588037585487</v>
+        <v>0.05436387905490603</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H10">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.4414519377486</v>
+        <v>40.92730033333333</v>
       </c>
       <c r="N10">
-        <v>14.4414519377486</v>
+        <v>122.781901</v>
       </c>
       <c r="O10">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="P10">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="Q10">
-        <v>525.4052345286473</v>
+        <v>4132.241344572167</v>
       </c>
       <c r="R10">
-        <v>525.4052345286473</v>
+        <v>37190.1721011495</v>
       </c>
       <c r="S10">
-        <v>0.003983266874589198</v>
+        <v>0.02066081125640275</v>
       </c>
       <c r="T10">
-        <v>0.003983266874589198</v>
+        <v>0.02066081125640275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H11">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.54368712743715</v>
+        <v>7.598228333333334</v>
       </c>
       <c r="N11">
-        <v>7.54368712743715</v>
+        <v>22.794685</v>
       </c>
       <c r="O11">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174674</v>
       </c>
       <c r="P11">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174673</v>
       </c>
       <c r="Q11">
-        <v>274.4525080640718</v>
+        <v>767.1581806955328</v>
       </c>
       <c r="R11">
-        <v>274.4525080640718</v>
+        <v>6904.423626259795</v>
       </c>
       <c r="S11">
-        <v>0.002080713156579591</v>
+        <v>0.003835717484404766</v>
       </c>
       <c r="T11">
-        <v>0.002080713156579591</v>
+        <v>0.003835717484404765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H12">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>43.6859631917161</v>
+        <v>49.40125466666666</v>
       </c>
       <c r="N12">
-        <v>43.6859631917161</v>
+        <v>148.203764</v>
       </c>
       <c r="O12">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063359</v>
       </c>
       <c r="P12">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063358</v>
       </c>
       <c r="Q12">
-        <v>1589.371611337562</v>
+        <v>4987.81755319146</v>
       </c>
       <c r="R12">
-        <v>1589.371611337562</v>
+        <v>44890.35797872314</v>
       </c>
       <c r="S12">
-        <v>0.01204953981193764</v>
+        <v>0.0249386104185865</v>
       </c>
       <c r="T12">
-        <v>0.01204953981193764</v>
+        <v>0.0249386104185865</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H13">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.26448193664837</v>
+        <v>6.436425</v>
       </c>
       <c r="N13">
-        <v>6.26448193664837</v>
+        <v>19.309275</v>
       </c>
       <c r="O13">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="P13">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="Q13">
-        <v>227.9127898851931</v>
+        <v>649.856239713325</v>
       </c>
       <c r="R13">
-        <v>227.9127898851931</v>
+        <v>5848.706157419925</v>
       </c>
       <c r="S13">
-        <v>0.001727880513142087</v>
+        <v>0.00324921900560064</v>
       </c>
       <c r="T13">
-        <v>0.001727880513142087</v>
+        <v>0.00324921900560064</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H14">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.4414519377486</v>
+        <v>40.92730033333333</v>
       </c>
       <c r="N14">
-        <v>14.4414519377486</v>
+        <v>122.781901</v>
       </c>
       <c r="O14">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="P14">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="Q14">
-        <v>1219.707880786728</v>
+        <v>3495.713162406449</v>
       </c>
       <c r="R14">
-        <v>1219.707880786728</v>
+        <v>31461.41846165804</v>
       </c>
       <c r="S14">
-        <v>0.009246999608924266</v>
+        <v>0.01747823126300968</v>
       </c>
       <c r="T14">
-        <v>0.009246999608924266</v>
+        <v>0.01747823126300968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H15">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.54368712743715</v>
+        <v>7.598228333333334</v>
       </c>
       <c r="N15">
-        <v>7.54368712743715</v>
+        <v>22.794685</v>
       </c>
       <c r="O15">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174674</v>
       </c>
       <c r="P15">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174673</v>
       </c>
       <c r="Q15">
-        <v>637.1308563146401</v>
+        <v>648.9855568159745</v>
       </c>
       <c r="R15">
-        <v>637.1308563146401</v>
+        <v>5840.870011343771</v>
       </c>
       <c r="S15">
-        <v>0.004830294918956278</v>
+        <v>0.003244865674440551</v>
       </c>
       <c r="T15">
-        <v>0.004830294918956278</v>
+        <v>0.003244865674440551</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H16">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.6859631917161</v>
+        <v>49.40125466666666</v>
       </c>
       <c r="N16">
-        <v>43.6859631917161</v>
+        <v>148.203764</v>
       </c>
       <c r="O16">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063359</v>
       </c>
       <c r="P16">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063358</v>
       </c>
       <c r="Q16">
-        <v>3689.664572120714</v>
+        <v>4219.496882793654</v>
       </c>
       <c r="R16">
-        <v>3689.664572120714</v>
+        <v>37975.47194514288</v>
       </c>
       <c r="S16">
-        <v>0.02797253948499143</v>
+        <v>0.02109708059692372</v>
       </c>
       <c r="T16">
-        <v>0.02797253948499143</v>
+        <v>0.02109708059692372</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H17">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.26448193664837</v>
+        <v>6.436425</v>
       </c>
       <c r="N17">
-        <v>6.26448193664837</v>
+        <v>19.309275</v>
       </c>
       <c r="O17">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="P17">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="Q17">
-        <v>529.090705014479</v>
+        <v>549.75274225495</v>
       </c>
       <c r="R17">
-        <v>529.090705014479</v>
+        <v>4947.77468029455</v>
       </c>
       <c r="S17">
-        <v>0.004011207617350659</v>
+        <v>0.002748711098479012</v>
       </c>
       <c r="T17">
-        <v>0.004011207617350659</v>
+        <v>0.002748711098479012</v>
       </c>
     </row>
   </sheetData>
